--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="347">
   <si>
     <t>ID</t>
   </si>
@@ -337,36 +337,15 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>370509</t>
-  </si>
-  <si>
-    <t>$ 8.88</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/370509</t>
+    <t>128135</t>
+  </si>
+  <si>
+    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/128135</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>367843</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/367843</t>
-  </si>
-  <si>
-    <t>279219</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/279219</t>
-  </si>
-  <si>
-    <t>128135</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/128135</t>
-  </si>
-  <si>
     <t>55505</t>
   </si>
   <si>
@@ -376,6 +355,15 @@
     <t>https://openloot.com/items/BT0/Hourglass_Common/issue/55505</t>
   </si>
   <si>
+    <t>377159</t>
+  </si>
+  <si>
+    <t>$ 12</t>
+  </si>
+  <si>
+    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/377159</t>
+  </si>
+  <si>
     <t>225770</t>
   </si>
   <si>
@@ -463,15 +451,6 @@
     <t>34.81</t>
   </si>
   <si>
-    <t>391300</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/391300</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>193505</t>
   </si>
   <si>
@@ -589,18 +568,6 @@
     <t>63.85</t>
   </si>
   <si>
-    <t>3185</t>
-  </si>
-  <si>
-    <t>$ 8.50</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/3185</t>
-  </si>
-  <si>
-    <t>67.19</t>
-  </si>
-  <si>
     <t>522949</t>
   </si>
   <si>
@@ -628,15 +595,6 @@
     <t>74.85</t>
   </si>
   <si>
-    <t>102978</t>
-  </si>
-  <si>
-    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/102978</t>
-  </si>
-  <si>
-    <t>79.18</t>
-  </si>
-  <si>
     <t>185496</t>
   </si>
   <si>
@@ -1085,6 +1043,15 @@
   </si>
   <si>
     <t>212.29</t>
+  </si>
+  <si>
+    <t>496803</t>
+  </si>
+  <si>
+    <t>https://openloot.com/items/BT0/Hourglass_Common/issue/496803</t>
+  </si>
+  <si>
+    <t>240</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D121"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,27 +1884,27 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
         <v>112</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,265 +1912,265 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
         <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
         <v>165</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,13 +2178,13 @@
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,13 +2192,13 @@
         <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,13 +2206,13 @@
         <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,136 +2220,136 @@
         <v>177</v>
       </c>
       <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
         <v>178</v>
       </c>
-      <c r="C57" t="s">
-        <v>179</v>
-      </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
         <v>180</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>181</v>
-      </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
         <v>182</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
         <v>204</v>
@@ -2390,30 +2357,30 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
         <v>209</v>
-      </c>
-      <c r="C68" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,41 +2388,41 @@
         <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" t="s">
         <v>215</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>216</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>217</v>
-      </c>
-      <c r="D70" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
         <v>219</v>
       </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>220</v>
-      </c>
-      <c r="D71" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,637 +2430,637 @@
         <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
         <v>242</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D81" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D88" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="C90" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D91" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="C102" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C107" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D108" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C112" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D113" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D114" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115" t="s">
+        <v>325</v>
+      </c>
+      <c r="C115" t="s">
         <v>326</v>
       </c>
-      <c r="B115" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>327</v>
-      </c>
-      <c r="D115" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>328</v>
+      </c>
+      <c r="B116" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" t="s">
         <v>329</v>
       </c>
-      <c r="B116" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>330</v>
-      </c>
-      <c r="D116" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>331</v>
+      </c>
+      <c r="B117" t="s">
         <v>332</v>
-      </c>
-      <c r="B117" t="s">
-        <v>143</v>
       </c>
       <c r="C117" t="s">
         <v>333</v>
@@ -3113,91 +3080,49 @@
         <v>336</v>
       </c>
       <c r="D118" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>337</v>
+      </c>
+      <c r="B119" t="s">
         <v>338</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>339</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>340</v>
-      </c>
-      <c r="D119" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" t="s">
         <v>342</v>
       </c>
-      <c r="B120" t="s">
-        <v>229</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>343</v>
-      </c>
-      <c r="D120" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
         <v>345</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>346</v>
-      </c>
-      <c r="C121" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>349</v>
-      </c>
-      <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>351</v>
-      </c>
-      <c r="B123" t="s">
-        <v>352</v>
-      </c>
-      <c r="C123" t="s">
-        <v>353</v>
-      </c>
-      <c r="D123" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>355</v>
-      </c>
-      <c r="B124" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" t="s">
-        <v>356</v>
-      </c>
-      <c r="D124" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
